--- a/temp/中间底稿.xlsx
+++ b/temp/中间底稿.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/temp/中间底稿.xlsx
+++ b/temp/中间底稿.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,38 +552,38 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZYT202306240010</t>
+          <t>IDCWS2023102503-S01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>310714</v>
+        <v>69210.39999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>310714</v>
+        <v>69210.39999999999</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>293126.41</v>
+        <v>65292.83</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00452</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -596,20 +596,36 @@
           <t>18.0.2501012.000.00.0.0.0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>冲减尾差</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>端口组</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>PCDN</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>nullnull</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>31</v>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2023-05-01 至 2023-05-31</t>
+          <t>2023-07-01 至 2023-07-31</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -617,367 +633,17 @@
           <t>TGE</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>BW-PCDN20230702001</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>IDC202307P-A006</t>
+          <t>IDC202308P-A002</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>YT2305BW000000001102</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2023-05</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-05</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>813787.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>813787.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>767724.15</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>182315IDC00077</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>18.506000.5202001.000.00.0.TGE.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>18.0.2501012.000.00.0.0.0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>端口组</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>nullnull</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>6740</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>120.74</v>
-      </c>
-      <c r="R3" t="n">
-        <v>31</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2023-05-01 至 2023-05-31</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>TGE</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>BW-CDNYANCCM220230313001</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>IDC202306P-A006</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>YT2305RK000000002054</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2023-05</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023-05</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4300</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4300</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4056.6</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>182315IDC00158</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>18.509391.5202100.000.00.0.TGE.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>18.0.2501012.000.00.0.0.0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>机架</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>4300</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>31</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>2023-05-01 至 2023-05-31</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>TGE</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>BECYANCCM2F-H-05</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>IDC202306P-A006</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>YT2305BW000000001103</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2023-05</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2023-05</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>779278.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>779278.8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>735168.6800000001</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>182315IDC00158</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>18.506000.5202001.000.00.0.TGE.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>18.0.2501012.000.00.0.0.0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>端口组</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nullnull</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>6740</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>115.62</v>
-      </c>
-      <c r="R5" t="n">
-        <v>31</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>2023-05-01 至 2023-05-31</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>TGE</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>BW-CDNYANCCM20190422010</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>IDC202306P-A006</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ZYT202306240009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2023-06</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2023-05</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>5661.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5661.6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5341.13</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>182315IDC00158</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>18.506000.5202001.000.00.0.TGE.0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>18.0.2501012.000.00.0.0.0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>端口组</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>2023-05-01 至 2023-05-31</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>TGE</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>IDC202307P-A006</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp/中间底稿.xlsx
+++ b/temp/中间底稿.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,216 +422,565 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>序号</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>费用明细编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>费用表月份</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>费用所属月份</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>当前实际金额</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>本次申请付款金额</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>税率</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>不含税金额</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>合同编号</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>费用科目</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>税科目</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>冲销增补说明</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>资源类型</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>机房名称</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>规格</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>单价</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>计费天数</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>计费期间</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>所属BG</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>关联资源</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>付款预申请编号</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>短信用途</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IDCWS2023102503-S01</t>
+          <t>YT2310RK000000001338</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-07</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>69210.39999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>69210.39999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>65292.83</v>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12000.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>11320.75</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>182315IDC00452</t>
+          <t>182315IDC00313</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>18.509391.5202184.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CACDNLZCT</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>4000.00000000</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2023-10-01 至 2023-10-31</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>LZ6CT2F202-L-1,LZ6CT2F202-L-13,LZ6CT2F202-L-14</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>IDC202311P-A004</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IDCWS2023110714-S02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>151800.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>151800.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>143207.56</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>182315IDC00313</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18.506000.5202001.000.00.0.TGE.0</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>18.0.2501012.000.00.0.0.0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>冲减尾差</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>202310兰州6电信计提33.5G，先按照对账结果33G，冲销0.5G</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>端口组</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>PCDN</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>CACDNLZCT</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>nullnull</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>28</v>
-      </c>
-      <c r="R2" t="n">
-        <v>31</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2023-07-01 至 2023-07-31</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>4600.00000000</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2023-10-01 至 2023-10-31</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>TGE</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>BW-PCDN20230702001</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>IDC202308P-A002</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>BW-CACDNLZCT20210926001</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>IDC202311P-A004</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>YT2310RK000000001336</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>15200.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15200.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14339.62</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>182315IDC00137</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>18.509391.5202184.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>CACDNHSCT</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>3800.00000000</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2023-10-01 至 2023-10-31</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>HS6CT4F403-03-05,HS6CT4F403-03-04,HS6CT4F403-03-03,HS6CT4F403-03-06</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>IDC202311P-A004</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IDCWS2023110714-S01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>770000.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>770000.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>726415.09</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>182315IDC00137</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>18.506000.5202001.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>202310黄石6电信计提56.5G，先按照对账结果56G，冲销0.5G</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>端口组</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>CACDNHSCT</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nullnull</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>13750.00000000</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>56.50</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2023-10-01 至 2023-10-31</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>BW-CACDNHSCT20211023010</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>IDC202311P-A004</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp/中间底稿.xlsx
+++ b/temp/中间底稿.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,32 +541,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>YT2310RK000000001338</t>
+          <t>YT2308RK000000004486</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>8129.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>8129.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11320.75</t>
+          <t>7668.90</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>182315IDC00313</t>
+          <t>182015IDC00225</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>18.509391.5202184.000.00.0.TGE.0</t>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -602,32 +602,32 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CACDNLZCT</t>
+          <t>BJDD</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>4000.00000000</t>
+          <t>6300.00000000</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>8</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2023-10-01 至 2023-10-31</t>
+          <t>2023-08-24 至 2023-08-31</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>LZ6CT2F202-L-1,LZ6CT2F202-L-13,LZ6CT2F202-L-14</t>
+          <t>BJDDM122-E-20,BJDDM122-E-19,BJDDM122-E-16,BJDDM122-E-15,BJDDM122-G-03</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>IDC202311P-A004</t>
+          <t>IDC202309P-A006</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -650,32 +650,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IDCWS2023110714-S02</t>
+          <t>YT2308RK000000004495</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>151800.00</t>
+          <t>274944.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>151800.00</t>
+          <t>274944.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -685,17 +685,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>143207.56</t>
+          <t>259381.13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>182315IDC00313</t>
+          <t>182015IDC00225</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>18.506000.5202001.000.00.0.TGE.0</t>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -703,34 +703,30 @@
           <t>18.0.2501012.000.00.0.0.0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>202310兰州6电信计提33.5G，先按照对账结果33G，冲销0.5G</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>端口组</t>
+          <t>机架</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CACDNLZCT</t>
+          <t>BJDD</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>nullnull</t>
+          <t>109.00</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>4600.00000000</t>
+          <t>34368.00000000</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -740,7 +736,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2023-10-01 至 2023-10-31</t>
+          <t>2023-08-01 至 2023-08-31</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -750,12 +746,12 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>BW-CACDNLZCT20210926001</t>
+          <t>BJDDM131-H-05,BJDDM131-H-07,BJDDM131-G-06,BJDDM131-G-08,BJDDM131-F-08,BJDDM131-F-06,BJDDM131-I-05,BJDDM131-I-07</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>IDC202311P-A004</t>
+          <t>IDC202309P-A006</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
@@ -763,12 +759,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>YT2310RK000000001336</t>
+          <t>YT2310RK000000003553</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -783,12 +779,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15200.00</t>
+          <t>2652300.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15200.00</t>
+          <t>2652300.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -798,17 +794,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14339.62</t>
+          <t>2502169.81</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>182315IDC00137</t>
+          <t>182015IDC00225</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>18.509391.5202184.000.00.0.TGE.0</t>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -824,22 +820,22 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CACDNHSCT</t>
+          <t>BJDD</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>3800.00000000</t>
+          <t>6300.00000000</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>421.00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -859,7 +855,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>HS6CT4F403-03-05,HS6CT4F403-03-04,HS6CT4F403-03-03,HS6CT4F403-03-06</t>
+          <t>BJDDM131-C-12,BJDDM131-C-13,BJDDM131-C-10,BJDDM131-C-11,BJDDM131-C-14,BJDDM131-C-01,BJDDM131-C-02,BJDDM131-C-09,BJDDM131-C-07,BJDDM131-C-08,BJDDM131-C-05,BJDDM131-C-06,BJDDM131-C-03,BJDDM131-C-04,BJDDM133-F-10,BJDDM133-F-12,BJDDM133-F-11,BJDDM133-F-14,BJDDM133-F-13,BJDDM133-F-15,BJDDM133-F-09,BJDDM133-F-08,BJDDM133-F-01,BJDDM133-F-03,BJDDM133-F-02,BJDDM133-F-05,BJDDM133-F-04,BJDDM133-F-07,BJDDM133-F-06,BJDDM131-A-11,BJDDM131-A-10,BJDDM131-A-13,BJDDM131-A-12,BJDDM131-A-06,BJDDM131-A-05,BJDDM131-A-08,BJDDM131-A-07,BJDDM131-A-02,BJDDM131-A-01,BJDDM131-A-04,BJDDM131-A-03,BJDDM131-A-09,BJDDM132-H-09,BJDDM132-H-06,BJDDM132-H-05,BJDDM132-H-08,BJDDM132-H-07,BJDDM132-H-02,BJDDM132-H-01,BJDDM132-H-04,BJDDM132-H-03,BJDDM132-H-17,BJDDM132-H-16,BJDDM132-H-18,BJDDM132-H-13,BJDDM132-H-12,BJDDM132-H-15,BJDDM132-H-14,BJDDM132-H-11,BJDDM132-H-10,BJDDM133-D-06,BJDDM133-D-07,BJDDM133-D-08,BJDDM133-D-09,BJDDM133-D-01,BJDDM133-D-02,BJDDM133-D-03,BJDDM133-D-04,BJDDM133-D-05,BJDDM133-D-10,BJDDM133-D-11,BJDDM133-D-12,BJDDM133-D-13,BJDDM133-D-14,BJDDM133-D-15,BJDDM132-F-07,BJDDM132-F-08,BJDDM132-F-09,BJDDM132-F-03,BJDDM132-F-04,BJDDM132-F-05,BJDDM132-F-06,BJDDM132-F-01,BJDDM132-F-02,BJDDM132-F-18,BJDDM132-F-19,BJDDM132-F-14,BJDDM132-F-15,BJDDM132-F-16,BJDDM132-F-17,BJDDM132-F-10,BJDDM132-F-11,BJDDM132-F-12,BJDDM132-F-13,BJDDM132-F-20,BJDDM122-E-20,BJDDM122-E-18,BJDDM122-E-19,BJDDM122-E-16,BJDDM122-E-17,BJDDM122-E-14,BJDDM122-E-15,BJDDM122-E-12,BJDDM122-E-13,BJDDM122-E-10,BJDDM122-E-11,BJDDM122-E-09,BJDDM122-E-07,BJDDM122-E-08,BJDDM122-E-05,BJDDM122-E-06,BJDDM122-E-03,BJDDM122-E-04,BJDDM122-E-01,BJDDM122-E-02,BJDDM133-B-14,BJDDM133-B-13,BJDDM133-B-12,BJDDM133-B-11,BJDDM133-B-10,BJDDM133-B-15,BJDDM133-B-03,BJDDM133-B-02,BJDDM133-B-01,BJDDM133-B-09,BJDDM133-B-08,BJDDM133-B-07,BJDDM133-B-06,BJDDM133-B-05,BJDDM133-B-04,BJDDM132-D-08,BJDDM132-D-07,BJDDM132-D-06,BJDDM132-D-05,BJDDM132-D-09,BJDDM132-D-04,BJDDM132-D-03,BJDDM132-D-02,BJDDM132-D-01,BJDDM132-D-18,BJDDM132-D-17,BJDDM132-D-16,BJDDM132-D-11,BJDDM132-D-10,BJDDM132-D-15,BJDDM132-D-14,BJDDM132-D-13,BJDDM132-D-12,BJDDM131-F-01,BJDDM132-B-20,BJDDM132-B-05,BJDDM132-B-06,BJDDM132-B-03,BJDDM132-B-04,BJDDM132-B-09,BJDDM132-B-07,BJDDM132-B-08,BJDDM132-B-01,BJDDM132-B-02,BJDDM132-B-16,BJDDM132-B-17,BJDDM132-B-14,BJDDM132-B-15,BJDDM132-B-18,BJDDM132-B-19,BJDDM132-B-12,BJDDM132-B-13,BJDDM132-B-10,BJDDM132-B-11,BJDDM131-D-09,BJDDM131-D-11,BJDDM131-D-12,BJDDM131-D-10,BJDDM133-G-09,BJDDM133-G-03,BJDDM133-G-04,BJDDM133-G-01,BJDDM133-G-02,BJDDM133-G-07,BJDDM133-G-08,BJDDM133-G-05,BJDDM133-G-06,BJDDM133-G-10,BJDDM133-G-11,BJDDM133-G-14,BJDDM133-G-15,BJDDM133-G-12,BJDDM133-G-13,BJDDM122-I-20,BJDDM122-I-13,BJDDM122-I-12,BJDDM122-I-11,BJDDM122-I-10,BJDDM122-I-19,BJDDM122-I-18,BJDDM122-I-17,BJDDM122-I-16,BJDDM122-I-15,BJDDM122-I-14,BJDDM122-I-09,BJDDM122-I-08,BJDDM122-I-07,BJDDM122-I-06,BJDDM122-I-05,BJDDM131-B-01,BJDDM131-B-08,BJDDM131-B-09,BJDDM131-B-06,BJDDM131-B-07,BJDDM131-B-04,BJDDM131-B-05,BJDDM131-B-02,BJDDM131-B-03,BJDDM131-B-11,BJDDM131-B-12,BJDDM131-B-10,BJDDM131-B-13,BJDDM131-B-14,BJDDM132-I-19,BJDDM132-I-17,BJDDM132-I-18,BJDDM132-I-15,BJDDM132-I-16,BJDDM132-I-13,BJDDM132-I-14,BJDDM132-I-11,BJDDM132-I-12,BJDDM132-I-10,BJDDM132-I-20,BJDDM132-I-08,BJDDM132-I-09,BJDDM132-I-06,BJDDM132-I-07,BJDDM132-I-04,BJDDM132-I-05,BJDDM132-I-02,BJDDM132-I-03,BJDDM132-I-01,BJDDM133-E-08,BJDDM133-E-07,BJDDM133-E-09,BJDDM133-E-02,BJDDM133-E-01,BJDDM133-E-04,BJDDM133-E-03,BJDDM133-E-06,BJDDM133-E-05,BJDDM133-E-11,BJDDM133-E-10,BJDDM133-E-13,BJDDM133-E-12,BJDDM133-E-15,BJDDM133-E-14,BJDDM133-C-05,BJDDM133-C-06,BJDDM133-C-07,BJDDM133-C-08,BJDDM133-C-09,BJDDM133-C-01,BJDDM133-C-02,BJDDM133-C-03,BJDDM133-C-04,BJDDM133-C-10,BJDDM133-C-11,BJDDM133-C-12,BJDDM132-G-16,BJDDM132-G-15,BJDDM132-G-17,BJDDM132-G-12,BJDDM132-G-11,BJDDM132-G-14,BJDDM132-G-13,BJDDM132-G-10,BJDDM132-G-09,BJDDM132-G-08,BJDDM132-G-05,BJDDM132-G-04,BJDDM132-G-07,BJDDM132-G-06,BJDDM132-G-01,BJDDM132-G-03,BJDDM132-G-02,BJDDM122-G-09,BJDDM122-G-07,BJDDM122-G-08,BJDDM122-G-05,BJDDM122-G-06,BJDDM122-G-03,BJDDM122-G-04,BJDDM122-G-01,BJDDM122-G-02,BJDDM122-G-10,BJDDM122-G-11,BJDDM122-G-16,BJDDM122-G-17,BJDDM122-G-14,BJDDM122-G-15,BJDDM122-G-12,BJDDM122-G-13,BJDDM132-E-17,BJDDM132-E-18,BJDDM132-E-19,BJDDM132-E-13,BJDDM132-E-14,BJDDM132-E-15,BJDDM132-E-16,BJDDM132-E-10,BJDDM132-E-11,BJDDM132-E-12,BJDDM132-E-20,BJDDM132-E-06,BJDDM132-E-07,BJDDM132-E-08,BJDDM132-E-09,BJDDM132-E-02,BJDDM132-E-03,BJDDM132-E-04,BJDDM132-E-05,BJDDM132-E-01,BJDDM133-A-02,BJDDM133-A-01,BJDDM133-A-06,BJDDM133-A-05,BJDDM133-A-04,BJDDM133-A-03,BJDDM133-A-12,BJDDM133-A-11,BJDDM133-A-10,BJDDM122-F-20,BJDDM122-F-19,BJDDM122-F-10,BJDDM122-F-17,BJDDM122-F-18,BJDDM122-F-15,BJDDM122-F-16,BJDDM122-F-13,BJDDM122-F-14,BJDDM122-F-11,BJDDM122-F-12,BJDDM122-F-08,BJDDM122-F-09,BJDDM122-F-06,BJDDM122-F-07,BJDDM122-F-04,BJDDM122-F-05,BJDDM122-F-02,BJDDM122-F-03,BJDDM122-F-01,BJDDM131-G-01,BJDDM131-G-02,BJDDM131-G-04,BJDDM122-D-17,BJDDM122-D-14,BJDDM122-D-13,BJDDM122-D-16,BJDDM122-D-15,BJDDM122-D-10,BJDDM122-D-12,BJDDM122-D-11,BJDDM122-D-07,BJDDM122-D-06,BJDDM122-D-09,BJDDM122-D-08,BJDDM122-D-03,BJDDM122-D-02,BJDDM122-D-05,BJDDM122-D-04,BJDDM122-D-01,BJDDM132-C-18,BJDDM132-C-17,BJDDM132-C-16,BJDDM132-C-15,BJDDM132-C-19,BJDDM132-C-10,BJDDM132-C-14,BJDDM132-C-13,BJDDM132-C-12,BJDDM132-C-11,BJDDM132-C-20,BJDDM132-C-07,BJDDM132-C-06,BJDDM132-C-05,BJDDM132-C-04,BJDDM132-C-09,BJDDM132-C-08,BJDDM132-C-03,BJDDM132-C-02,BJDDM132-C-01,BJDDM133-J-02,BJDDM133-J-01,BJDDM133-J-15,BJDDM131-E-12,BJDDM131-E-11,BJDDM131-E-10,BJDDM131-E-04,BJDDM131-E-03,BJDDM131-E-02,BJDDM131-E-01,BJDDM131-E-09,BJDDM131-E-08,BJDDM131-E-07,BJDDM131-E-06,BJDDM131-E-05,BJDDM132-A-15,BJDDM132-A-16,BJDDM132-A-13,BJDDM132-A-14,BJDDM132-A-17,BJDDM132-A-18,BJDDM132-A-11,BJDDM132-A-12,BJDDM132-A-10,BJDDM132-A-04,BJDDM132-A-05,BJDDM132-A-02,BJDDM132-A-03,BJDDM132-A-08,BJDDM132-A-09,BJDDM132-A-06,BJDDM132-A-07,BJDDM132-A-01</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -872,115 +868,2295 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IDCWS2023110714-S01</t>
+          <t>YT2308RK000000004478</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3658.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3658.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3451.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2023-08-14 至 2023-08-31</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>BJDDM122-E-14</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>IDC202309P-A006</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>YT2308RK000000004489</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37804.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>37804.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>35664.91</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>9451.20000000</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2023-08-01 至 2023-08-31</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>BJDDM131-H-02,BJDDM131-H-03,BJDDM131-I-02,BJDDM131-I-03</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>IDC202309P-A006</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>YT2308RK000000004501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34751.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>34751.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>32784.54</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2023-08-23 至 2023-08-31</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>BJDDM122-G-09,BJDDM122-G-07,BJDDM122-G-08,BJDDM122-G-05,BJDDM122-G-06,BJDDM122-G-04,BJDDM122-G-10,BJDDM122-G-11,BJDDM122-G-16,BJDDM122-G-17,BJDDM122-G-15,BJDDM122-G-12,BJDDM122-I-10,BJDDM122-I-09,BJDDM122-I-08,BJDDM122-I-07,BJDDM122-I-06,BJDDM122-I-05,BJDDM122-D-06</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>IDC202309P-A006</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>YT2310RK000000003511</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2023-10</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2023-10</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>770000.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>770000.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>137472.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>137472.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>726415.09</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>182315IDC00137</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>18.506000.5202001.000.00.0.TGE.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>129690.57</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>18.0.2501012.000.00.0.0.0</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>202310黄石6电信计提56.5G，先按照对账结果56G，冲销0.5G</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>端口组</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>CACDNHSCT</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nullnull</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>13750.00000000</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>56.50</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>QYDD</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>34368.00000000</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>2023-10-01 至 2023-10-31</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>TGE</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>BW-CACDNHSCT20211023010</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>QYDDM121-H-06,QYDDM121-H-08,QYDDM121-I-06,QYDDM121-I-08</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>IDC202311P-A004</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>YT2308RK000000004499</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2148300.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2148300.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026698.11</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>341.00</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2023-08-01 至 2023-08-31</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>BJDDM131-C-12,BJDDM131-C-13,BJDDM131-C-10,BJDDM131-C-11,BJDDM131-C-14,BJDDM131-C-01,BJDDM131-C-02,BJDDM131-C-09,BJDDM131-C-07,BJDDM131-C-08,BJDDM131-C-05,BJDDM131-C-06,BJDDM131-C-03,BJDDM131-C-04,BJDDM133-D-06,BJDDM133-D-07,BJDDM133-D-08,BJDDM133-D-09,BJDDM133-D-01,BJDDM133-D-02,BJDDM133-D-03,BJDDM133-D-04,BJDDM133-D-05,BJDDM133-D-10,BJDDM133-D-11,BJDDM133-D-12,BJDDM133-D-13,BJDDM133-D-14,BJDDM133-D-15,BJDDM132-F-07,BJDDM132-F-08,BJDDM132-F-09,BJDDM132-F-03,BJDDM132-F-04,BJDDM132-F-05,BJDDM132-F-06,BJDDM132-F-01,BJDDM132-F-02,BJDDM132-F-18,BJDDM132-F-19,BJDDM132-F-14,BJDDM132-F-15,BJDDM132-F-16,BJDDM132-F-17,BJDDM132-F-10,BJDDM132-F-11,BJDDM132-F-12,BJDDM132-F-13,BJDDM132-F-20,BJDDM122-E-01,BJDDM122-E-02,BJDDM132-B-20,BJDDM132-B-05,BJDDM132-B-06,BJDDM132-B-03,BJDDM132-B-04,BJDDM132-B-09,BJDDM132-B-07,BJDDM132-B-08,BJDDM132-B-01,BJDDM132-B-02,BJDDM132-B-16,BJDDM132-B-17,BJDDM132-B-14,BJDDM132-B-15,BJDDM132-B-18,BJDDM132-B-19,BJDDM132-B-12,BJDDM132-B-13,BJDDM132-B-10,BJDDM132-B-11,BJDDM131-D-09,BJDDM131-D-11,BJDDM131-D-12,BJDDM131-D-10,BJDDM133-G-09,BJDDM133-G-03,BJDDM133-G-04,BJDDM133-G-01,BJDDM133-G-02,BJDDM133-G-07,BJDDM133-G-08,BJDDM133-G-05,BJDDM133-G-06,BJDDM133-G-10,BJDDM133-G-11,BJDDM133-G-14,BJDDM133-G-15,BJDDM133-G-12,BJDDM133-G-13,BJDDM131-B-01,BJDDM131-B-08,BJDDM131-B-09,BJDDM131-B-06,BJDDM131-B-07,BJDDM131-B-04,BJDDM131-B-05,BJDDM131-B-02,BJDDM131-B-03,BJDDM131-B-11,BJDDM131-B-12,BJDDM131-B-10,BJDDM131-B-13,BJDDM131-B-14,BJDDM132-I-19,BJDDM132-I-17,BJDDM132-I-18,BJDDM132-I-15,BJDDM132-I-16,BJDDM132-I-13,BJDDM132-I-14,BJDDM132-I-11,BJDDM132-I-12,BJDDM132-I-10,BJDDM132-I-20,BJDDM132-I-08,BJDDM132-I-09,BJDDM132-I-06,BJDDM132-I-07,BJDDM132-I-04,BJDDM132-I-05,BJDDM132-I-02,BJDDM132-I-03,BJDDM132-I-01,BJDDM133-C-05,BJDDM133-C-06,BJDDM133-C-07,BJDDM133-C-08,BJDDM133-C-09,BJDDM133-C-01,BJDDM133-C-02,BJDDM133-C-03,BJDDM133-C-04,BJDDM133-C-10,BJDDM133-C-11,BJDDM133-C-12,BJDDM133-C-13,BJDDM133-C-14,BJDDM133-C-15,BJDDM132-E-17,BJDDM132-E-18,BJDDM132-E-19,BJDDM132-E-13,BJDDM132-E-14,BJDDM132-E-15,BJDDM132-E-16,BJDDM132-E-10,BJDDM132-E-11,BJDDM132-E-12,BJDDM132-E-20,BJDDM132-E-06,BJDDM132-E-07,BJDDM132-E-08,BJDDM132-E-09,BJDDM132-E-02,BJDDM132-E-03,BJDDM132-E-04,BJDDM132-E-05,BJDDM132-E-01,BJDDM131-G-01,BJDDM131-G-02,BJDDM131-G-04,BJDDM132-A-15,BJDDM132-A-16,BJDDM132-A-13,BJDDM132-A-14,BJDDM132-A-17,BJDDM132-A-18,BJDDM132-A-11,BJDDM132-A-12,BJDDM132-A-10,BJDDM132-A-04,BJDDM132-A-05,BJDDM132-A-02,BJDDM132-A-03,BJDDM132-A-08,BJDDM132-A-09,BJDDM132-A-06,BJDDM132-A-07,BJDDM132-A-01,BJDDM133-F-10,BJDDM133-F-12,BJDDM133-F-11,BJDDM133-F-14,BJDDM133-F-13,BJDDM133-F-15,BJDDM133-F-09,BJDDM133-F-08,BJDDM133-F-01,BJDDM133-F-03,BJDDM133-F-02,BJDDM133-F-05,BJDDM133-F-04,BJDDM133-F-07,BJDDM133-F-06,BJDDM131-A-11,BJDDM131-A-10,BJDDM131-A-13,BJDDM131-A-12,BJDDM131-A-06,BJDDM131-A-05,BJDDM131-A-08,BJDDM131-A-07,BJDDM131-A-02,BJDDM131-A-01,BJDDM131-A-04,BJDDM131-A-03,BJDDM131-A-09,BJDDM132-H-09,BJDDM132-H-06,BJDDM132-H-05,BJDDM132-H-08,BJDDM132-H-07,BJDDM132-H-02,BJDDM132-H-01,BJDDM132-H-04,BJDDM132-H-03,BJDDM132-H-17,BJDDM132-H-16,BJDDM132-H-18,BJDDM132-H-13,BJDDM132-H-12,BJDDM132-H-15,BJDDM132-H-14,BJDDM132-H-11,BJDDM132-H-10,BJDDM133-B-14,BJDDM133-B-13,BJDDM133-B-12,BJDDM133-B-11,BJDDM133-B-10,BJDDM133-B-15,BJDDM133-B-03,BJDDM133-B-02,BJDDM133-B-01,BJDDM133-B-09,BJDDM133-B-08,BJDDM133-B-07,BJDDM133-B-06,BJDDM133-B-05,BJDDM133-B-04,BJDDM132-D-08,BJDDM132-D-07,BJDDM132-D-06,BJDDM132-D-05,BJDDM132-D-09,BJDDM132-D-04,BJDDM132-D-03,BJDDM132-D-02,BJDDM132-D-01,BJDDM132-D-18,BJDDM132-D-17,BJDDM132-D-16,BJDDM132-D-11,BJDDM132-D-10,BJDDM132-D-15,BJDDM132-D-14,BJDDM132-D-13,BJDDM132-D-12,BJDDM131-F-01,BJDDM133-E-08,BJDDM133-E-07,BJDDM133-E-09,BJDDM133-E-02,BJDDM133-E-01,BJDDM133-E-04,BJDDM133-E-03,BJDDM133-E-06,BJDDM133-E-05,BJDDM133-E-11,BJDDM133-E-10,BJDDM133-E-13,BJDDM133-E-12,BJDDM133-E-15,BJDDM133-E-14,BJDDM132-G-16,BJDDM132-G-15,BJDDM132-G-17,BJDDM132-G-12,BJDDM132-G-11,BJDDM132-G-14,BJDDM132-G-13,BJDDM132-G-10,BJDDM132-G-09,BJDDM132-G-08,BJDDM132-G-05,BJDDM132-G-04,BJDDM132-G-07,BJDDM132-G-06,BJDDM132-G-01,BJDDM132-G-03,BJDDM132-G-02,BJDDM133-A-02,BJDDM133-A-01,BJDDM133-A-09,BJDDM133-A-08,BJDDM133-A-07,BJDDM133-A-06,BJDDM133-A-05,BJDDM133-A-04,BJDDM133-A-03,BJDDM133-A-13,BJDDM133-A-12,BJDDM133-A-11,BJDDM133-A-10,BJDDM133-A-14,BJDDM132-C-18,BJDDM132-C-17,BJDDM132-C-16,BJDDM132-C-15,BJDDM132-C-19,BJDDM132-C-10,BJDDM132-C-14,BJDDM132-C-13,BJDDM132-C-12,BJDDM132-C-11,BJDDM132-C-20,BJDDM132-C-07,BJDDM132-C-06,BJDDM132-C-05,BJDDM132-C-04,BJDDM132-C-09,BJDDM132-C-08,BJDDM132-C-03,BJDDM132-C-02,BJDDM132-C-01,BJDDM133-J-02,BJDDM133-J-01,BJDDM133-J-15,BJDDM131-E-12,BJDDM131-E-11,BJDDM131-E-10,BJDDM131-E-04,BJDDM131-E-03,BJDDM131-E-02,BJDDM131-E-01,BJDDM131-E-09,BJDDM131-E-08,BJDDM131-E-07,BJDDM131-E-06,BJDDM131-E-05</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>IDC202309P-A006</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>YT2310RK000000003547</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>274944.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>274944.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>259381.13</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>34368.00000000</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2023-10-01 至 2023-10-31</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>BJDDM131-H-05,BJDDM131-H-07,BJDDM131-F-08,BJDDM131-F-06,BJDDM131-I-05,BJDDM131-I-07,BJDDM131-G-06,BJDDM131-G-08</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>IDC202311P-A004</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>YT2310RK000000003569</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2205000.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2205000.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2080188.68</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>QYDD</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>350.00</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2023-10-01 至 2023-10-31</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>QYDDM121-F-09,QYDDM121-F-08,QYDDM121-F-07,QYDDM121-F-06,QYDDM121-F-05,QYDDM121-F-04,QYDDM121-F-03,QYDDM121-F-02,QYDDM121-F-01,QYDDM121-F-15,QYDDM121-F-14,QYDDM121-F-13,QYDDM121-F-12,QYDDM121-F-11,QYDDM121-F-10,QYDDM123-B-15,QYDDM123-B-14,QYDDM123-B-13,QYDDM123-B-12,QYDDM123-B-11,QYDDM123-B-10,QYDDM123-B-09,QYDDM123-B-08,QYDDM123-B-07,QYDDM123-B-06,QYDDM123-B-05,QYDDM123-B-04,QYDDM123-B-03,QYDDM123-B-02,QYDDM123-B-01,QYDDM123-D-01,QYDDM123-D-02,QYDDM123-D-03,QYDDM123-D-04,QYDDM123-D-05,QYDDM123-D-06,QYDDM123-D-07,QYDDM123-D-08,QYDDM123-D-09,QYDDM123-D-10,QYDDM123-D-11,QYDDM123-D-12,QYDDM123-D-13,QYDDM123-D-14,QYDDM123-D-15,QYDDM123-E-10,QYDDM123-E-11,QYDDM123-E-12,QYDDM123-E-13,QYDDM123-E-14,QYDDM123-E-15,QYDDM123-E-01,QYDDM123-E-02,QYDDM123-E-03,QYDDM123-E-04,QYDDM123-E-05,QYDDM123-E-06,QYDDM123-E-07,QYDDM123-E-08,QYDDM123-E-09,QYDDM121-B-08,QYDDM121-B-07,QYDDM121-B-09,QYDDM121-B-04,QYDDM121-B-03,QYDDM121-B-06,QYDDM121-B-05,QYDDM121-B-02,QYDDM121-B-01,QYDDM121-B-15,QYDDM121-B-14,QYDDM121-B-11,QYDDM121-B-10,QYDDM121-B-13,QYDDM121-B-12,QYDDM122-I-04,QYDDM122-I-03,QYDDM122-I-02,QYDDM122-I-01,QYDDM123-G-10,QYDDM123-G-12,QYDDM123-G-11,QYDDM123-G-14,QYDDM123-G-13,QYDDM123-G-15,QYDDM123-G-01,QYDDM123-G-03,QYDDM123-G-02,QYDDM123-G-05,QYDDM123-G-04,QYDDM123-G-07,QYDDM123-G-06,QYDDM123-G-09,QYDDM123-G-08,QYDDM121-D-09,QYDDM121-D-07,QYDDM121-D-08,QYDDM121-D-05,QYDDM121-D-06,QYDDM121-D-03,QYDDM121-D-04,QYDDM121-D-01,QYDDM121-D-02,QYDDM121-D-14,QYDDM121-D-15,QYDDM121-D-12,QYDDM121-D-13,QYDDM121-D-10,QYDDM121-D-11,QYDDM123-I-10,QYDDM123-I-13,QYDDM123-I-14,QYDDM123-I-11,QYDDM123-I-12,QYDDM123-I-15,QYDDM123-I-02,QYDDM123-I-03,QYDDM123-I-01,QYDDM123-I-06,QYDDM123-I-07,QYDDM123-I-04,QYDDM123-I-05,QYDDM123-I-08,QYDDM123-I-09,QYDDM122-B-02,QYDDM122-B-03,QYDDM122-B-01,QYDDM122-B-06,QYDDM122-B-07,QYDDM122-B-04,QYDDM122-B-05,QYDDM122-B-08,QYDDM122-B-09,QYDDM122-B-10,QYDDM122-B-13,QYDDM122-B-14,QYDDM122-B-11,QYDDM122-B-12,QYDDM122-B-17,QYDDM122-B-18,QYDDM122-B-15,QYDDM122-B-16,QYDDM122-B-19,QYDDM122-B-20,QYDDM123-J-04,QYDDM123-J-03,QYDDM123-J-02,QYDDM123-J-01,QYDDM123-J-08,QYDDM123-J-07,QYDDM123-J-06,QYDDM123-J-05,QYDDM123-J-09,QYDDM123-J-11,QYDDM123-J-10,QYDDM123-J-15,QYDDM123-J-14,QYDDM123-J-13,QYDDM123-J-12,QYDDM122-C-04,QYDDM122-C-03,QYDDM122-C-02,QYDDM122-C-01,QYDDM122-C-08,QYDDM122-C-07,QYDDM122-C-06,QYDDM122-C-05,QYDDM122-C-09,QYDDM122-C-11,QYDDM122-C-10,QYDDM122-C-15,QYDDM122-C-14,QYDDM122-C-13,QYDDM122-C-12,QYDDM122-C-19,QYDDM122-C-18,QYDDM122-C-17,QYDDM122-C-16,QYDDM122-C-20,QYDDM121-G-08,QYDDM121-G-09,QYDDM121-G-01,QYDDM121-G-02,QYDDM121-G-03,QYDDM121-G-04,QYDDM121-G-05,QYDDM121-G-06,QYDDM121-G-07,QYDDM121-G-11,QYDDM121-G-12,QYDDM121-G-13,QYDDM121-G-14,QYDDM121-G-15,QYDDM121-G-10,QYDDM123-A-14,QYDDM123-A-13,QYDDM123-A-12,QYDDM123-A-11,QYDDM123-A-10,QYDDM123-A-09,QYDDM123-A-08,QYDDM123-A-07,QYDDM123-A-06,QYDDM123-A-05,QYDDM123-A-04,QYDDM123-A-03,QYDDM123-A-02,QYDDM123-A-01,QYDDM123-C-10,QYDDM123-C-11,QYDDM123-C-12,QYDDM123-C-13,QYDDM123-C-14,QYDDM123-C-15,QYDDM123-C-01,QYDDM123-C-02,QYDDM123-C-03,QYDDM123-C-04,QYDDM123-C-05,QYDDM123-C-06,QYDDM123-C-07,QYDDM123-C-08,QYDDM123-C-09,QYDDM122-H-07,QYDDM122-H-06,QYDDM122-H-09,QYDDM122-H-08,QYDDM122-H-03,QYDDM122-H-02,QYDDM122-H-05,QYDDM122-H-04,QYDDM122-H-01,QYDDM122-H-18,QYDDM122-H-17,QYDDM122-H-14,QYDDM122-H-13,QYDDM122-H-16,QYDDM122-H-15,QYDDM122-H-10,QYDDM122-H-12,QYDDM122-H-11,QYDDM121-A-14,QYDDM121-A-13,QYDDM121-A-10,QYDDM121-A-12,QYDDM121-A-11,QYDDM121-A-07,QYDDM121-A-06,QYDDM121-A-09,QYDDM121-A-08,QYDDM121-A-03,QYDDM121-A-02,QYDDM121-A-05,QYDDM121-A-04,QYDDM121-A-01,QYDDM123-F-02,QYDDM123-F-01,QYDDM123-F-04,QYDDM123-F-03,QYDDM123-F-06,QYDDM123-F-05,QYDDM123-F-08,QYDDM123-F-07,QYDDM123-F-09,QYDDM123-F-11,QYDDM123-F-10,QYDDM123-F-13,QYDDM123-F-12,QYDDM123-F-15,QYDDM123-F-14,QYDDM122-J-08,QYDDM122-J-09,QYDDM122-J-06,QYDDM122-J-07,QYDDM122-J-04,QYDDM122-J-05,QYDDM122-J-02,QYDDM122-J-03,QYDDM122-J-01,QYDDM122-J-17,QYDDM122-J-15,QYDDM122-J-16,QYDDM122-J-13,QYDDM122-J-14,QYDDM122-J-11,QYDDM122-J-12,QYDDM122-J-10,QYDDM121-C-08,QYDDM121-C-09,QYDDM121-C-06,QYDDM121-C-07,QYDDM121-C-04,QYDDM121-C-05,QYDDM121-C-02,QYDDM121-C-03,QYDDM121-C-01,QYDDM121-C-15,QYDDM121-C-13,QYDDM121-C-14,QYDDM121-C-11,QYDDM121-C-12,QYDDM121-C-10,QYDDM123-H-01,QYDDM123-H-02,QYDDM123-H-05,QYDDM123-H-06,QYDDM123-H-03,QYDDM123-H-04,QYDDM123-H-09,QYDDM123-H-07,QYDDM123-H-08,QYDDM123-H-12,QYDDM123-H-13,QYDDM123-H-10,QYDDM123-H-11,QYDDM123-H-14,QYDDM123-H-15,QYDDM122-A-01,QYDDM122-A-02,QYDDM122-A-05,QYDDM122-A-06,QYDDM122-A-03,QYDDM122-A-04,QYDDM122-A-09,QYDDM122-A-07,QYDDM122-A-08,QYDDM122-A-12,QYDDM122-A-13,QYDDM122-A-10,QYDDM122-A-11,QYDDM122-A-16,QYDDM122-A-17,QYDDM122-A-14,QYDDM122-A-15,QYDDM122-A-18,QYDDM121-E-15,QYDDM121-E-14,QYDDM121-E-13,QYDDM121-E-12,QYDDM121-E-11,QYDDM121-E-10,QYDDM121-E-09,QYDDM121-E-08,QYDDM121-E-07,QYDDM121-E-06,QYDDM121-E-05,QYDDM121-E-04,QYDDM121-E-03,QYDDM121-E-02,QYDDM121-E-01</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>IDC202311P-A004</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IDCWS2023111425-S01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>177009.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>177009.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>166990.23</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>冲改造QYDD -61,374.20,8.8关四个，8.15关4个，8.21关2个，8.22关14个</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2023-08-09 至 2023-08-31</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>BJDDM122-E-12,BJDDM122-E-13,BJDDM122-E-10,BJDDM122-E-11,BJDDM122-E-09,BJDDM122-E-07,BJDDM122-E-08,BJDDM122-E-05,BJDDM122-E-06,BJDDM122-E-03,BJDDM122-E-04,BJDDM122-F-20,BJDDM122-F-19,BJDDM122-F-10,BJDDM122-F-17,BJDDM122-F-18,BJDDM122-F-15,BJDDM122-F-16,BJDDM122-F-13,BJDDM122-F-14,BJDDM122-F-11,BJDDM122-F-12,BJDDM122-F-08,BJDDM122-F-09,BJDDM122-F-06,BJDDM122-F-07,BJDDM122-F-04,BJDDM122-F-05,BJDDM122-F-02,BJDDM122-F-03,BJDDM122-F-01,BJDDM122-I-20,BJDDM122-I-13,BJDDM122-I-12,BJDDM122-I-11,BJDDM122-I-19,BJDDM122-I-18,BJDDM122-I-17,BJDDM122-I-16,BJDDM122-I-15,BJDDM122-I-14,BJDDM122-D-14,BJDDM122-D-13,BJDDM122-D-16,BJDDM122-D-15,BJDDM122-D-10,BJDDM122-D-12,BJDDM122-D-11,BJDDM122-D-07,BJDDM122-D-09,BJDDM122-D-08</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>IDC202309P-A006</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>YT2310RK000000003508</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37804.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>37804.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>35664.91</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>9451.20000000</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2023-10-01 至 2023-10-31</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>BJDDM131-H-02,BJDDM131-H-03,BJDDM131-I-02,BJDDM131-I-03</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>IDC202311P-A004</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>YT2308RK000000004490</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26012.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>26012.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>24540.47</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2023-08-16 至 2023-08-31</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>BJDDM122-E-18,BJDDM122-E-17,BJDDM122-G-01,BJDDM122-G-02,BJDDM122-G-14,BJDDM122-G-13,BJDDM122-D-02,BJDDM122-D-01</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>IDC202309P-A006</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>YT2309RK000000003824</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>137472.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>137472.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>129690.57</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>QYDD</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>34368.00000000</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2023-09-01 至 2023-09-30</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>QYDDM121-H-06,QYDDM121-H-08,QYDDM121-I-06,QYDDM121-I-08</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>IDC202310P-A002</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>YT2309RK000000003826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37804.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>37804.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>35664.91</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>9451.20000000</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2023-09-01 至 2023-09-30</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>BJDDM131-H-02,BJDDM131-H-03,BJDDM131-I-02,BJDDM131-I-03</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>IDC202310P-A002</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>YT2309RK000000003825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6300.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6300.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>5943.40</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2023-09-01 至 2023-09-30</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>BJDDM122-D-17</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>IDC202310P-A002</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>YT2309RK000000003820</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2646000.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2646000.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2496226.42</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>420.00</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2023-09-01 至 2023-09-30</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>BJDDM131-C-12,BJDDM131-C-13,BJDDM131-C-10,BJDDM131-C-11,BJDDM131-C-14,BJDDM131-C-01,BJDDM131-C-02,BJDDM131-C-09,BJDDM131-C-07,BJDDM131-C-08,BJDDM131-C-05,BJDDM131-C-06,BJDDM131-C-03,BJDDM131-C-04,BJDDM133-F-10,BJDDM133-F-12,BJDDM133-F-11,BJDDM133-F-14,BJDDM133-F-13,BJDDM133-F-15,BJDDM133-F-09,BJDDM133-F-08,BJDDM133-F-01,BJDDM133-F-03,BJDDM133-F-02,BJDDM133-F-05,BJDDM133-F-04,BJDDM133-F-07,BJDDM133-F-06,BJDDM131-A-11,BJDDM131-A-10,BJDDM131-A-13,BJDDM131-A-12,BJDDM131-A-06,BJDDM131-A-05,BJDDM131-A-08,BJDDM131-A-07,BJDDM131-A-02,BJDDM131-A-01,BJDDM131-A-04,BJDDM131-A-03,BJDDM131-A-09,BJDDM132-H-09,BJDDM132-H-06,BJDDM132-H-05,BJDDM132-H-08,BJDDM132-H-07,BJDDM132-H-02,BJDDM132-H-01,BJDDM132-H-04,BJDDM132-H-03,BJDDM132-H-17,BJDDM132-H-16,BJDDM132-H-18,BJDDM132-H-13,BJDDM132-H-12,BJDDM132-H-15,BJDDM132-H-14,BJDDM132-H-11,BJDDM132-H-10,BJDDM133-D-06,BJDDM133-D-07,BJDDM133-D-08,BJDDM133-D-09,BJDDM133-D-01,BJDDM133-D-02,BJDDM133-D-03,BJDDM133-D-04,BJDDM133-D-05,BJDDM133-D-10,BJDDM133-D-11,BJDDM133-D-12,BJDDM133-D-13,BJDDM133-D-14,BJDDM133-D-15,BJDDM132-F-07,BJDDM132-F-08,BJDDM132-F-09,BJDDM132-F-03,BJDDM132-F-04,BJDDM132-F-05,BJDDM132-F-06,BJDDM132-F-01,BJDDM132-F-02,BJDDM132-F-18,BJDDM132-F-19,BJDDM132-F-14,BJDDM132-F-15,BJDDM132-F-16,BJDDM132-F-17,BJDDM132-F-10,BJDDM132-F-11,BJDDM132-F-12,BJDDM132-F-13,BJDDM132-F-20,BJDDM122-E-20,BJDDM122-E-18,BJDDM122-E-19,BJDDM122-E-16,BJDDM122-E-17,BJDDM122-E-14,BJDDM122-E-15,BJDDM122-E-12,BJDDM122-E-13,BJDDM122-E-10,BJDDM122-E-11,BJDDM122-E-09,BJDDM122-E-07,BJDDM122-E-08,BJDDM122-E-05,BJDDM122-E-06,BJDDM122-E-03,BJDDM122-E-04,BJDDM122-E-01,BJDDM122-E-02,BJDDM133-B-14,BJDDM133-B-13,BJDDM133-B-12,BJDDM133-B-11,BJDDM133-B-10,BJDDM133-B-15,BJDDM133-B-03,BJDDM133-B-02,BJDDM133-B-01,BJDDM133-B-09,BJDDM133-B-08,BJDDM133-B-07,BJDDM133-B-06,BJDDM133-B-05,BJDDM133-B-04,BJDDM132-D-08,BJDDM132-D-07,BJDDM132-D-06,BJDDM132-D-05,BJDDM132-D-09,BJDDM132-D-04,BJDDM132-D-03,BJDDM132-D-02,BJDDM132-D-01,BJDDM132-D-18,BJDDM132-D-17,BJDDM132-D-16,BJDDM132-D-11,BJDDM132-D-10,BJDDM132-D-15,BJDDM132-D-14,BJDDM132-D-13,BJDDM132-D-12,BJDDM131-F-01,BJDDM132-B-20,BJDDM132-B-05,BJDDM132-B-06,BJDDM132-B-03,BJDDM132-B-04,BJDDM132-B-09,BJDDM132-B-07,BJDDM132-B-08,BJDDM132-B-01,BJDDM132-B-02,BJDDM132-B-16,BJDDM132-B-17,BJDDM132-B-14,BJDDM132-B-15,BJDDM132-B-18,BJDDM132-B-19,BJDDM132-B-12,BJDDM132-B-13,BJDDM132-B-10,BJDDM132-B-11,BJDDM131-D-09,BJDDM131-D-11,BJDDM131-D-12,BJDDM131-D-10,BJDDM133-G-09,BJDDM133-G-03,BJDDM133-G-04,BJDDM133-G-01,BJDDM133-G-02,BJDDM133-G-07,BJDDM133-G-08,BJDDM133-G-05,BJDDM133-G-06,BJDDM133-G-10,BJDDM133-G-11,BJDDM133-G-14,BJDDM133-G-15,BJDDM133-G-12,BJDDM133-G-13,BJDDM122-I-20,BJDDM122-I-13,BJDDM122-I-12,BJDDM122-I-11,BJDDM122-I-10,BJDDM122-I-19,BJDDM122-I-18,BJDDM122-I-17,BJDDM122-I-16,BJDDM122-I-15,BJDDM122-I-14,BJDDM122-I-09,BJDDM122-I-08,BJDDM122-I-07,BJDDM122-I-06,BJDDM122-I-05,BJDDM131-B-01,BJDDM131-B-08,BJDDM131-B-09,BJDDM131-B-06,BJDDM131-B-07,BJDDM131-B-04,BJDDM131-B-05,BJDDM131-B-02,BJDDM131-B-03,BJDDM131-B-11,BJDDM131-B-12,BJDDM131-B-10,BJDDM131-B-13,BJDDM131-B-14,BJDDM132-I-19,BJDDM132-I-17,BJDDM132-I-18,BJDDM132-I-15,BJDDM132-I-16,BJDDM132-I-13,BJDDM132-I-14,BJDDM132-I-11,BJDDM132-I-12,BJDDM132-I-10,BJDDM132-I-20,BJDDM132-I-08,BJDDM132-I-09,BJDDM132-I-06,BJDDM132-I-07,BJDDM132-I-04,BJDDM132-I-05,BJDDM132-I-02,BJDDM132-I-03,BJDDM132-I-01,BJDDM133-E-08,BJDDM133-E-07,BJDDM133-E-09,BJDDM133-E-02,BJDDM133-E-01,BJDDM133-E-04,BJDDM133-E-03,BJDDM133-E-06,BJDDM133-E-05,BJDDM133-E-11,BJDDM133-E-10,BJDDM133-E-13,BJDDM133-E-12,BJDDM133-E-15,BJDDM133-E-14,BJDDM133-C-05,BJDDM133-C-06,BJDDM133-C-07,BJDDM133-C-08,BJDDM133-C-09,BJDDM133-C-01,BJDDM133-C-02,BJDDM133-C-03,BJDDM133-C-04,BJDDM133-C-10,BJDDM133-C-11,BJDDM133-C-12,BJDDM132-G-16,BJDDM132-G-15,BJDDM132-G-17,BJDDM132-G-12,BJDDM132-G-11,BJDDM132-G-14,BJDDM132-G-13,BJDDM132-G-10,BJDDM132-G-09,BJDDM132-G-08,BJDDM132-G-05,BJDDM132-G-04,BJDDM132-G-07,BJDDM132-G-06,BJDDM132-G-01,BJDDM132-G-03,BJDDM132-G-02,BJDDM122-G-09,BJDDM122-G-07,BJDDM122-G-08,BJDDM122-G-05,BJDDM122-G-06,BJDDM122-G-03,BJDDM122-G-04,BJDDM122-G-01,BJDDM122-G-02,BJDDM122-G-10,BJDDM122-G-11,BJDDM122-G-16,BJDDM122-G-17,BJDDM122-G-14,BJDDM122-G-15,BJDDM122-G-12,BJDDM122-G-13,BJDDM132-E-17,BJDDM132-E-18,BJDDM132-E-19,BJDDM132-E-13,BJDDM132-E-14,BJDDM132-E-15,BJDDM132-E-16,BJDDM132-E-10,BJDDM132-E-11,BJDDM132-E-12,BJDDM132-E-20,BJDDM132-E-06,BJDDM132-E-07,BJDDM132-E-08,BJDDM132-E-09,BJDDM132-E-02,BJDDM132-E-03,BJDDM132-E-04,BJDDM132-E-05,BJDDM132-E-01,BJDDM133-A-02,BJDDM133-A-01,BJDDM133-A-06,BJDDM133-A-05,BJDDM133-A-04,BJDDM133-A-03,BJDDM133-A-12,BJDDM133-A-11,BJDDM133-A-10,BJDDM122-F-20,BJDDM122-F-19,BJDDM122-F-10,BJDDM122-F-17,BJDDM122-F-18,BJDDM122-F-15,BJDDM122-F-16,BJDDM122-F-13,BJDDM122-F-14,BJDDM122-F-11,BJDDM122-F-12,BJDDM122-F-08,BJDDM122-F-09,BJDDM122-F-06,BJDDM122-F-07,BJDDM122-F-04,BJDDM122-F-05,BJDDM122-F-02,BJDDM122-F-03,BJDDM122-F-01,BJDDM131-G-01,BJDDM131-G-02,BJDDM131-G-04,BJDDM122-D-14,BJDDM122-D-13,BJDDM122-D-16,BJDDM122-D-15,BJDDM122-D-10,BJDDM122-D-12,BJDDM122-D-11,BJDDM122-D-07,BJDDM122-D-06,BJDDM122-D-09,BJDDM122-D-08,BJDDM122-D-03,BJDDM122-D-02,BJDDM122-D-05,BJDDM122-D-04,BJDDM122-D-01,BJDDM132-C-18,BJDDM132-C-17,BJDDM132-C-16,BJDDM132-C-15,BJDDM132-C-19,BJDDM132-C-10,BJDDM132-C-14,BJDDM132-C-13,BJDDM132-C-12,BJDDM132-C-11,BJDDM132-C-20,BJDDM132-C-07,BJDDM132-C-06,BJDDM132-C-05,BJDDM132-C-04,BJDDM132-C-09,BJDDM132-C-08,BJDDM132-C-03,BJDDM132-C-02,BJDDM132-C-01,BJDDM133-J-02,BJDDM133-J-01,BJDDM133-J-15,BJDDM131-E-12,BJDDM131-E-11,BJDDM131-E-10,BJDDM131-E-04,BJDDM131-E-03,BJDDM131-E-02,BJDDM131-E-01,BJDDM131-E-09,BJDDM131-E-08,BJDDM131-E-07,BJDDM131-E-06,BJDDM131-E-05,BJDDM132-A-15,BJDDM132-A-16,BJDDM132-A-13,BJDDM132-A-14,BJDDM132-A-17,BJDDM132-A-18,BJDDM132-A-11,BJDDM132-A-12,BJDDM132-A-10,BJDDM132-A-04,BJDDM132-A-05,BJDDM132-A-02,BJDDM132-A-03,BJDDM132-A-08,BJDDM132-A-09,BJDDM132-A-06,BJDDM132-A-07,BJDDM132-A-01</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>IDC202310P-A002</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>YT2309RK000000003821</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2205000.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2205000.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2080188.68</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>QYDD</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>350.00</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2023-09-01 至 2023-09-30</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>QYDDM121-F-09,QYDDM121-F-08,QYDDM121-F-07,QYDDM121-F-06,QYDDM121-F-05,QYDDM121-F-04,QYDDM121-F-03,QYDDM121-F-02,QYDDM121-F-01,QYDDM121-F-15,QYDDM121-F-14,QYDDM121-F-13,QYDDM121-F-12,QYDDM121-F-11,QYDDM121-F-10,QYDDM123-B-15,QYDDM123-B-14,QYDDM123-B-13,QYDDM123-B-12,QYDDM123-B-11,QYDDM123-B-10,QYDDM123-B-09,QYDDM123-B-08,QYDDM123-B-07,QYDDM123-B-06,QYDDM123-B-05,QYDDM123-B-04,QYDDM123-B-03,QYDDM123-B-02,QYDDM123-B-01,QYDDM123-D-01,QYDDM123-D-02,QYDDM123-D-03,QYDDM123-D-04,QYDDM123-D-05,QYDDM123-D-06,QYDDM123-D-07,QYDDM123-D-08,QYDDM123-D-09,QYDDM123-D-10,QYDDM123-D-11,QYDDM123-D-12,QYDDM123-D-13,QYDDM123-D-14,QYDDM123-D-15,QYDDM123-E-10,QYDDM123-E-11,QYDDM123-E-12,QYDDM123-E-13,QYDDM123-E-14,QYDDM123-E-15,QYDDM123-E-01,QYDDM123-E-02,QYDDM123-E-03,QYDDM123-E-04,QYDDM123-E-05,QYDDM123-E-06,QYDDM123-E-07,QYDDM123-E-08,QYDDM123-E-09,QYDDM121-B-08,QYDDM121-B-07,QYDDM121-B-09,QYDDM121-B-04,QYDDM121-B-03,QYDDM121-B-06,QYDDM121-B-05,QYDDM121-B-02,QYDDM121-B-01,QYDDM121-B-15,QYDDM121-B-14,QYDDM121-B-11,QYDDM121-B-10,QYDDM121-B-13,QYDDM121-B-12,QYDDM122-I-04,QYDDM122-I-03,QYDDM122-I-02,QYDDM122-I-01,QYDDM123-G-10,QYDDM123-G-12,QYDDM123-G-11,QYDDM123-G-14,QYDDM123-G-13,QYDDM123-G-15,QYDDM123-G-01,QYDDM123-G-03,QYDDM123-G-02,QYDDM123-G-05,QYDDM123-G-04,QYDDM123-G-07,QYDDM123-G-06,QYDDM123-G-09,QYDDM123-G-08,QYDDM121-D-09,QYDDM121-D-07,QYDDM121-D-08,QYDDM121-D-05,QYDDM121-D-06,QYDDM121-D-03,QYDDM121-D-04,QYDDM121-D-01,QYDDM121-D-02,QYDDM121-D-14,QYDDM121-D-15,QYDDM121-D-12,QYDDM121-D-13,QYDDM121-D-10,QYDDM121-D-11,QYDDM123-I-10,QYDDM123-I-13,QYDDM123-I-14,QYDDM123-I-11,QYDDM123-I-12,QYDDM123-I-15,QYDDM123-I-02,QYDDM123-I-03,QYDDM123-I-01,QYDDM123-I-06,QYDDM123-I-07,QYDDM123-I-04,QYDDM123-I-05,QYDDM123-I-08,QYDDM123-I-09,QYDDM122-B-02,QYDDM122-B-03,QYDDM122-B-01,QYDDM122-B-06,QYDDM122-B-07,QYDDM122-B-04,QYDDM122-B-05,QYDDM122-B-08,QYDDM122-B-09,QYDDM122-B-10,QYDDM122-B-13,QYDDM122-B-14,QYDDM122-B-11,QYDDM122-B-12,QYDDM122-B-17,QYDDM122-B-18,QYDDM122-B-15,QYDDM122-B-16,QYDDM122-B-19,QYDDM122-B-20,QYDDM123-J-04,QYDDM123-J-03,QYDDM123-J-02,QYDDM123-J-01,QYDDM123-J-08,QYDDM123-J-07,QYDDM123-J-06,QYDDM123-J-05,QYDDM123-J-09,QYDDM123-J-11,QYDDM123-J-10,QYDDM123-J-15,QYDDM123-J-14,QYDDM123-J-13,QYDDM123-J-12,QYDDM122-C-04,QYDDM122-C-03,QYDDM122-C-02,QYDDM122-C-01,QYDDM122-C-08,QYDDM122-C-07,QYDDM122-C-06,QYDDM122-C-05,QYDDM122-C-09,QYDDM122-C-11,QYDDM122-C-10,QYDDM122-C-15,QYDDM122-C-14,QYDDM122-C-13,QYDDM122-C-12,QYDDM122-C-19,QYDDM122-C-18,QYDDM122-C-17,QYDDM122-C-16,QYDDM122-C-20,QYDDM121-G-08,QYDDM121-G-09,QYDDM121-G-01,QYDDM121-G-02,QYDDM121-G-03,QYDDM121-G-04,QYDDM121-G-05,QYDDM121-G-06,QYDDM121-G-07,QYDDM121-G-11,QYDDM121-G-12,QYDDM121-G-13,QYDDM121-G-14,QYDDM121-G-15,QYDDM121-G-10,QYDDM123-A-14,QYDDM123-A-13,QYDDM123-A-12,QYDDM123-A-11,QYDDM123-A-10,QYDDM123-A-09,QYDDM123-A-08,QYDDM123-A-07,QYDDM123-A-06,QYDDM123-A-05,QYDDM123-A-04,QYDDM123-A-03,QYDDM123-A-02,QYDDM123-A-01,QYDDM123-C-10,QYDDM123-C-11,QYDDM123-C-12,QYDDM123-C-13,QYDDM123-C-14,QYDDM123-C-15,QYDDM123-C-01,QYDDM123-C-02,QYDDM123-C-03,QYDDM123-C-04,QYDDM123-C-05,QYDDM123-C-06,QYDDM123-C-07,QYDDM123-C-08,QYDDM123-C-09,QYDDM122-H-07,QYDDM122-H-06,QYDDM122-H-09,QYDDM122-H-08,QYDDM122-H-03,QYDDM122-H-02,QYDDM122-H-05,QYDDM122-H-04,QYDDM122-H-01,QYDDM122-H-18,QYDDM122-H-17,QYDDM122-H-14,QYDDM122-H-13,QYDDM122-H-16,QYDDM122-H-15,QYDDM122-H-10,QYDDM122-H-12,QYDDM122-H-11,QYDDM121-A-14,QYDDM121-A-13,QYDDM121-A-10,QYDDM121-A-12,QYDDM121-A-11,QYDDM121-A-07,QYDDM121-A-06,QYDDM121-A-09,QYDDM121-A-08,QYDDM121-A-03,QYDDM121-A-02,QYDDM121-A-05,QYDDM121-A-04,QYDDM121-A-01,QYDDM123-F-02,QYDDM123-F-01,QYDDM123-F-04,QYDDM123-F-03,QYDDM123-F-06,QYDDM123-F-05,QYDDM123-F-08,QYDDM123-F-07,QYDDM123-F-09,QYDDM123-F-11,QYDDM123-F-10,QYDDM123-F-13,QYDDM123-F-12,QYDDM123-F-15,QYDDM123-F-14,QYDDM122-J-08,QYDDM122-J-09,QYDDM122-J-06,QYDDM122-J-07,QYDDM122-J-04,QYDDM122-J-05,QYDDM122-J-02,QYDDM122-J-03,QYDDM122-J-01,QYDDM122-J-17,QYDDM122-J-15,QYDDM122-J-16,QYDDM122-J-13,QYDDM122-J-14,QYDDM122-J-11,QYDDM122-J-12,QYDDM122-J-10,QYDDM121-C-08,QYDDM121-C-09,QYDDM121-C-06,QYDDM121-C-07,QYDDM121-C-04,QYDDM121-C-05,QYDDM121-C-02,QYDDM121-C-03,QYDDM121-C-01,QYDDM121-C-15,QYDDM121-C-13,QYDDM121-C-14,QYDDM121-C-11,QYDDM121-C-12,QYDDM121-C-10,QYDDM123-H-01,QYDDM123-H-02,QYDDM123-H-05,QYDDM123-H-06,QYDDM123-H-03,QYDDM123-H-04,QYDDM123-H-09,QYDDM123-H-07,QYDDM123-H-08,QYDDM123-H-12,QYDDM123-H-13,QYDDM123-H-10,QYDDM123-H-11,QYDDM123-H-14,QYDDM123-H-15,QYDDM122-A-01,QYDDM122-A-02,QYDDM122-A-05,QYDDM122-A-06,QYDDM122-A-03,QYDDM122-A-04,QYDDM122-A-09,QYDDM122-A-07,QYDDM122-A-08,QYDDM122-A-12,QYDDM122-A-13,QYDDM122-A-10,QYDDM122-A-11,QYDDM122-A-16,QYDDM122-A-17,QYDDM122-A-14,QYDDM122-A-15,QYDDM122-A-18,QYDDM121-E-15,QYDDM121-E-14,QYDDM121-E-13,QYDDM121-E-12,QYDDM121-E-11,QYDDM121-E-10,QYDDM121-E-09,QYDDM121-E-08,QYDDM121-E-07,QYDDM121-E-06,QYDDM121-E-05,QYDDM121-E-04,QYDDM121-E-03,QYDDM121-E-02,QYDDM121-E-01</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>IDC202310P-A002</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>YT2308RK000000004502</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2362500.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2362500.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2228773.58</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>QYDD</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>375.00</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2023-08-01 至 2023-08-31</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>QYDDM122-F-05,QYDDM122-F-06,QYDDM122-F-07,QYDDM122-F-08,QYDDM123-D-01,QYDDM123-D-02,QYDDM123-D-03,QYDDM123-D-04,QYDDM123-D-05,QYDDM123-D-06,QYDDM123-D-07,QYDDM123-D-08,QYDDM123-D-09,QYDDM123-D-10,QYDDM123-D-11,QYDDM123-D-12,QYDDM123-D-13,QYDDM123-D-14,QYDDM123-D-15,QYDDM123-E-10,QYDDM123-E-11,QYDDM123-E-12,QYDDM123-E-13,QYDDM123-E-14,QYDDM123-E-15,QYDDM123-E-01,QYDDM123-E-02,QYDDM123-E-03,QYDDM123-E-04,QYDDM123-E-05,QYDDM123-E-06,QYDDM123-E-07,QYDDM123-E-08,QYDDM123-E-09,QYDDM121-D-09,QYDDM121-D-07,QYDDM121-D-08,QYDDM121-D-05,QYDDM121-D-06,QYDDM121-D-03,QYDDM121-D-04,QYDDM121-D-01,QYDDM121-D-02,QYDDM121-D-14,QYDDM121-D-15,QYDDM121-D-12,QYDDM121-D-13,QYDDM121-D-10,QYDDM121-D-11,QYDDM123-I-10,QYDDM123-I-13,QYDDM123-I-14,QYDDM123-I-11,QYDDM123-I-12,QYDDM123-I-15,QYDDM123-I-02,QYDDM123-I-03,QYDDM123-I-01,QYDDM123-I-06,QYDDM123-I-07,QYDDM123-I-04,QYDDM123-I-05,QYDDM123-I-08,QYDDM123-I-09,QYDDM122-B-02,QYDDM122-B-03,QYDDM122-B-01,QYDDM122-B-06,QYDDM122-B-07,QYDDM122-B-04,QYDDM122-B-05,QYDDM122-B-08,QYDDM122-B-09,QYDDM122-B-10,QYDDM122-B-13,QYDDM122-B-14,QYDDM122-B-11,QYDDM122-B-12,QYDDM122-B-17,QYDDM122-B-18,QYDDM122-B-15,QYDDM122-B-16,QYDDM122-B-19,QYDDM122-B-20,QYDDM121-G-08,QYDDM121-G-09,QYDDM121-G-01,QYDDM121-G-02,QYDDM121-G-03,QYDDM121-G-04,QYDDM121-G-05,QYDDM121-G-06,QYDDM121-G-07,QYDDM121-G-11,QYDDM121-G-12,QYDDM121-G-13,QYDDM121-G-14,QYDDM121-G-15,QYDDM121-G-10,QYDDM123-C-10,QYDDM123-C-11,QYDDM123-C-12,QYDDM123-C-13,QYDDM123-C-14,QYDDM123-C-15,QYDDM123-C-01,QYDDM123-C-02,QYDDM123-C-03,QYDDM123-C-04,QYDDM123-C-05,QYDDM123-C-06,QYDDM123-C-07,QYDDM123-C-08,QYDDM123-C-09,QYDDM122-J-08,QYDDM122-J-09,QYDDM122-J-06,QYDDM122-J-07,QYDDM122-J-04,QYDDM122-J-05,QYDDM122-J-02,QYDDM122-J-03,QYDDM122-J-01,QYDDM122-J-17,QYDDM122-J-15,QYDDM122-J-16,QYDDM122-J-13,QYDDM122-J-14,QYDDM122-J-11,QYDDM122-J-12,QYDDM122-J-10,QYDDM121-C-08,QYDDM121-C-09,QYDDM121-C-06,QYDDM121-C-07,QYDDM121-C-04,QYDDM121-C-05,QYDDM121-C-02,QYDDM121-C-03,QYDDM121-C-01,QYDDM121-C-15,QYDDM121-C-13,QYDDM121-C-14,QYDDM121-C-11,QYDDM121-C-12,QYDDM121-C-10,QYDDM123-H-01,QYDDM123-H-02,QYDDM123-H-05,QYDDM123-H-06,QYDDM123-H-03,QYDDM123-H-04,QYDDM123-H-09,QYDDM123-H-07,QYDDM123-H-08,QYDDM123-H-12,QYDDM123-H-13,QYDDM123-H-10,QYDDM123-H-11,QYDDM123-H-14,QYDDM123-H-15,QYDDM122-A-01,QYDDM122-A-02,QYDDM122-A-05,QYDDM122-A-06,QYDDM122-A-03,QYDDM122-A-04,QYDDM122-A-09,QYDDM122-A-07,QYDDM122-A-08,QYDDM122-A-12,QYDDM122-A-13,QYDDM122-A-10,QYDDM122-A-11,QYDDM122-A-16,QYDDM122-A-17,QYDDM122-A-14,QYDDM122-A-15,QYDDM122-A-18,QYDDM121-F-09,QYDDM121-F-08,QYDDM121-F-07,QYDDM121-F-06,QYDDM121-F-05,QYDDM121-F-04,QYDDM121-F-03,QYDDM121-F-02,QYDDM121-F-01,QYDDM121-F-15,QYDDM121-F-14,QYDDM121-F-13,QYDDM121-F-12,QYDDM121-F-11,QYDDM121-F-10,QYDDM122-D-01,QYDDM122-D-05,QYDDM122-D-03,QYDDM122-D-02,QYDDM122-D-06,QYDDM122-D-17,QYDDM123-B-15,QYDDM123-B-14,QYDDM123-B-13,QYDDM123-B-12,QYDDM123-B-11,QYDDM123-B-10,QYDDM123-B-09,QYDDM123-B-08,QYDDM123-B-07,QYDDM123-B-06,QYDDM123-B-05,QYDDM123-B-04,QYDDM123-B-03,QYDDM123-B-02,QYDDM123-B-01,QYDDM121-B-08,QYDDM121-B-07,QYDDM121-B-09,QYDDM121-B-04,QYDDM121-B-03,QYDDM121-B-06,QYDDM121-B-05,QYDDM121-B-02,QYDDM121-B-01,QYDDM121-B-15,QYDDM121-B-14,QYDDM121-B-11,QYDDM121-B-10,QYDDM121-B-13,QYDDM121-B-12,QYDDM122-I-04,QYDDM122-I-03,QYDDM122-I-06,QYDDM122-I-05,QYDDM122-I-02,QYDDM122-I-01,QYDDM123-G-10,QYDDM123-G-12,QYDDM123-G-11,QYDDM123-G-14,QYDDM123-G-13,QYDDM123-G-15,QYDDM123-G-01,QYDDM123-G-03,QYDDM123-G-02,QYDDM123-G-05,QYDDM123-G-04,QYDDM123-G-07,QYDDM123-G-06,QYDDM123-G-09,QYDDM123-G-08,QYDDM123-J-04,QYDDM123-J-03,QYDDM123-J-02,QYDDM123-J-01,QYDDM123-J-08,QYDDM123-J-07,QYDDM123-J-06,QYDDM123-J-05,QYDDM123-J-09,QYDDM123-J-11,QYDDM123-J-10,QYDDM123-J-15,QYDDM123-J-14,QYDDM123-J-13,QYDDM123-J-12,QYDDM122-C-04,QYDDM122-C-03,QYDDM122-C-02,QYDDM122-C-01,QYDDM122-C-08,QYDDM122-C-07,QYDDM122-C-06,QYDDM122-C-05,QYDDM122-C-09,QYDDM122-C-11,QYDDM122-C-10,QYDDM122-C-15,QYDDM122-C-14,QYDDM122-C-13,QYDDM122-C-12,QYDDM122-C-19,QYDDM122-C-18,QYDDM122-C-17,QYDDM122-C-16,QYDDM122-C-20,QYDDM123-A-14,QYDDM123-A-13,QYDDM123-A-12,QYDDM123-A-11,QYDDM123-A-10,QYDDM123-A-09,QYDDM123-A-08,QYDDM123-A-07,QYDDM123-A-06,QYDDM123-A-05,QYDDM123-A-04,QYDDM123-A-03,QYDDM123-A-02,QYDDM123-A-01,QYDDM122-G-06,QYDDM122-G-05,QYDDM122-G-08,QYDDM122-G-07,QYDDM122-G-09,QYDDM122-G-17,QYDDM122-G-16,QYDDM122-G-13,QYDDM122-G-12,QYDDM122-G-15,QYDDM122-G-14,QYDDM122-G-11,QYDDM122-G-10,QYDDM122-H-07,QYDDM122-H-06,QYDDM122-H-09,QYDDM122-H-08,QYDDM122-H-03,QYDDM122-H-02,QYDDM122-H-05,QYDDM122-H-04,QYDDM122-H-01,QYDDM122-H-18,QYDDM122-H-17,QYDDM122-H-14,QYDDM122-H-13,QYDDM122-H-16,QYDDM122-H-15,QYDDM122-H-10,QYDDM122-H-12,QYDDM122-H-11,QYDDM121-A-14,QYDDM121-A-13,QYDDM121-A-10,QYDDM121-A-12,QYDDM121-A-11,QYDDM121-A-07,QYDDM121-A-06,QYDDM121-A-09,QYDDM121-A-08,QYDDM121-A-03,QYDDM121-A-02,QYDDM121-A-05,QYDDM121-A-04,QYDDM121-A-01,QYDDM123-F-02,QYDDM123-F-01,QYDDM123-F-04,QYDDM123-F-03,QYDDM123-F-06,QYDDM123-F-05,QYDDM123-F-08,QYDDM123-F-07,QYDDM123-F-09,QYDDM123-F-11,QYDDM123-F-10,QYDDM123-F-13,QYDDM123-F-12,QYDDM123-F-15,QYDDM123-F-14,QYDDM121-E-15,QYDDM121-E-14,QYDDM121-E-13,QYDDM121-E-12,QYDDM121-E-11,QYDDM121-E-10,QYDDM121-E-09,QYDDM121-E-08,QYDDM121-E-07,QYDDM121-E-06,QYDDM121-E-05,QYDDM121-E-04,QYDDM121-E-03,QYDDM121-E-02,QYDDM121-E-01</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>IDC202309P-A006</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>YT2308RK000000004503</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>137472.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>137472.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>129690.57</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>QYDD</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>34368.00000000</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2023-08-01 至 2023-08-31</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>QYDDM121-H-06,QYDDM121-H-08,QYDDM121-I-06,QYDDM121-I-08</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>IDC202309P-A006</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>YT2309RK000000003828</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2730.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2730.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2575.47</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2023-09-01 至 2023-09-13</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>BJDDM133-A-07</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>IDC202310P-A002</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>YT2309RK000000003816</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26460.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>26460.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>24962.26</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2023-09-01 至 2023-09-18</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>BJDDM133-C-13,BJDDM133-C-14,BJDDM133-C-15,BJDDM133-A-09,BJDDM133-A-08,BJDDM133-A-13,BJDDM133-A-14</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>IDC202310P-A002</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>YT2309RK000000003838</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>274944.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>274944.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>259381.13</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>34368.00000000</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2023-09-01 至 2023-09-30</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>BJDDM131-H-05,BJDDM131-H-07,BJDDM131-F-08,BJDDM131-F-06,BJDDM131-I-05,BJDDM131-I-07,BJDDM131-G-06,BJDDM131-G-08</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>IDC202310P-A002</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>YT2308RK000000004506</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6096.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6096.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>5751.67</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>182015IDC00225</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>18.509391.5202183.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>BJDD</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>6300.00000000</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2023-08-22 至 2023-08-31</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>BJDDM122-D-03,BJDDM122-D-05,BJDDM122-D-04</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>IDC202309P-A006</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp/中间底稿.xlsx
+++ b/temp/中间底稿.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,32 +541,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IDCWS2023112702-S01</t>
+          <t>IDCWS2023121844-S11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>3500.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>3500.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11320.75</t>
+          <t>3301.90</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>182315IDC00625</t>
+          <t>182315IDC00703</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>18.506000.5202001.000.00.0.TGE.0</t>
+          <t>18.509391.5202100.000.00.0.TGE.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -596,25 +596,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>换合同号</t>
+          <t>修改合同号</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>端口组</t>
+          <t>机架</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CDMT</t>
+          <t>CDNZWUN2</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>nullnull</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>3500.00000000</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>1.00</t>
@@ -622,12 +626,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2023-10-01 至 2023-10-31</t>
+          <t>2023-11-01 至 2023-11-30</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -637,12 +641,12 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>BW-CDMT20230802003</t>
+          <t>CDNZWUN2:IDC1-SR101-BECC17</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>IDC202311P-A004</t>
+          <t>IDC202312P-A002</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -650,32 +654,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IDCWS2023112701-S02</t>
+          <t>IDCWS2023121844-S10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>852615.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12000.00</t>
+          <t>852615.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -685,12 +689,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11320.75</t>
+          <t>804353.77</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>182315IDC00625</t>
+          <t>182315IDC00703</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -705,7 +709,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>换合同号</t>
+          <t>202311中卫2联通，计提95.9，结算 94.735 ，冲1.165</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -715,7 +719,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CDMT</t>
+          <t>CDNZWUN2</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -723,20 +727,24 @@
           <t>nullnull</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>9000.00000000</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2023-07-01 至 2023-07-31</t>
+          <t>2023-11-01 至 2023-11-30</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -746,233 +754,15 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>BW-CDMT20230802003</t>
+          <t>BW-CDNZWUN220230727002</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>IDC202308P-A002</t>
+          <t>IDC202312P-A002</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>IDCWS2023112702-S03</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2023-08</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023-08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12000.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12000.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>11320.77</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>182315IDC00625</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>18.506000.5202001.000.00.0.TGE.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>18.0.2501012.000.00.0.0.0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>换合同号</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>端口组</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>CDMT</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>nullnull</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>2023-08-01 至 2023-08-31</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>TGE</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>BW-CDMT20230802003</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>IDC202309P-A006</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>IDCWS2023112702-S02</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2023-09</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2023-09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>12000.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12000.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>11320.75</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>182315IDC00625</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>18.506000.5202001.000.00.0.TGE.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>18.0.2501012.000.00.0.0.0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>换合同号</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>端口组</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>CDMT</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nullnull</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>2023-09-01 至 2023-09-30</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>TGE</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>BW-CDMT20230802003</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>IDC202310P-A002</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp/中间底稿.xlsx
+++ b/temp/中间底稿.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,12 +541,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IDCWS2023121844-S11</t>
+          <t>YT2311RK000000002807</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3500.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3500.00</t>
+          <t>8000.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3301.90</t>
+          <t>7547.17</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>182315IDC00703</t>
+          <t>182315IDC00293</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -594,11 +594,7 @@
           <t>18.0.2501012.000.00.0.0.0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>修改合同号</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>机架</t>
@@ -606,22 +602,22 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CDNZWUN2</t>
+          <t>CACDNTJCM2</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>3500.00000000</t>
+          <t>4000.00000000</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -641,7 +637,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>CDNZWUN2:IDC1-SR101-BECC17</t>
+          <t>TJ4CM203-F-02,TJ4CM203-F-01</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -654,115 +650,628 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZYT202311280034</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>126000.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>126000.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>118867.92</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>182315IDC00293</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>18.506000.5202001.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>端口组</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2023-11-01 至 2023-11-30</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>BW-CACDNTJCM220210607001</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>IDC202312P-A002</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>YT2311BW000000000097</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14000.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14000.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>13207.55</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>182315IDC00293</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>18.506000.5202001.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>端口组</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>CACDNTJCM2</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>nullnull</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>3500.00000000</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2023-11-01 至 2023-11-30</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>BW-CACDNTJCM220210607001</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>IDC202312P-A002</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>YT2311IP000000002244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7547.17</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>182315IDC00293</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>18.506000.5202001.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>CACDNTJCM2</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>160.00</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2023-11-01 至 2023-11-30</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>IP-CACDNTJCM220210610001</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>IDC202312P-A002</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>YT2311RK000000002808</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12000.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12000.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11320.75</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>182315IDC00292</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>18.509391.5202184.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>CACDNSYCT</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>4000.00000000</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2023-11-01 至 2023-11-30</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>CACDNSYCT:1F:101-H-CDN07,CACDNSYCT:1F:101-H-CDN09,CACDNSYCT:1F:101-H-CDN08</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>IDC202312P-A002</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>IDCWS2023121844-S10</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2023-11</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>852615.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>852615.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IDCWS2023120645-S01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78266.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>78266.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>804353.77</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>182315IDC00703</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>73836.41</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>182315IDC00292</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>18.506000.5202001.000.00.0.TGE.0</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>18.0.2501012.000.00.0.0.0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>202311中卫2联通，计提95.9，结算 94.735 ，冲1.165</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>202311沈阳3电信计提23.5G，先按照对账结果23.48G，冲销0.02G</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>端口组</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>CDNZWUN2</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>CACDNSYCT</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>nullnull</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>9000.00000000</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>95.90</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>3333.33000000</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>2023-11-01 至 2023-11-30</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>TGE</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>BW-CDNZWUN220230727002</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>BW-CACDNSYCT20210607003</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>IDC202312P-A002</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>YT2311IP000000002245</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>7547.17</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>182315IDC00292</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>18.506000.5202001.000.00.0.TGE.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>18.0.2501012.000.00.0.0.0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>CACDNSYCT</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>160.00</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2023-11-01 至 2023-11-30</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>TGE</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>IP-CACDNSYCT20210601003</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>IDC202312P-A002</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
